--- a/excels/materiales/04Acero(varilla).xlsx
+++ b/excels/materiales/04Acero(varilla).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="450" windowWidth="19320" windowHeight="13470"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="19320" windowHeight="13480"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -175,15 +180,103 @@
   </si>
   <si>
     <t>MC tubo estructural galvanizado cuad 100x100x1,50 (4"x4"x1,50)</t>
+  </si>
+  <si>
+    <t>557.52</t>
+  </si>
+  <si>
+    <t>8672.57</t>
+  </si>
+  <si>
+    <t>7415.93</t>
+  </si>
+  <si>
+    <t>30.97</t>
+  </si>
+  <si>
+    <t>716.81</t>
+  </si>
+  <si>
+    <t>1234.51</t>
+  </si>
+  <si>
+    <t>508.85</t>
+  </si>
+  <si>
+    <t>2482.3</t>
+  </si>
+  <si>
+    <t>4079.65</t>
+  </si>
+  <si>
+    <t>4230.09</t>
+  </si>
+  <si>
+    <t>33194.69</t>
+  </si>
+  <si>
+    <t>16676.99</t>
+  </si>
+  <si>
+    <t>10615.04</t>
+  </si>
+  <si>
+    <t>12.39</t>
+  </si>
+  <si>
+    <t>2946.9</t>
+  </si>
+  <si>
+    <t>6181.42</t>
+  </si>
+  <si>
+    <t>46.9</t>
+  </si>
+  <si>
+    <t>36.28</t>
+  </si>
+  <si>
+    <t>9296.45</t>
+  </si>
+  <si>
+    <t>9051.96</t>
+  </si>
+  <si>
+    <t>3336.28</t>
+  </si>
+  <si>
+    <t>2123.89</t>
+  </si>
+  <si>
+    <t>3393.81</t>
+  </si>
+  <si>
+    <t>199.12</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>12079.65</t>
+  </si>
+  <si>
+    <t>16659.29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -339,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +610,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -638,104 +737,106 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -751,7 +852,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -793,7 +894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -825,9 +926,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -859,6 +961,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1034,161 +1137,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>4001</v>
+      </c>
       <c r="B2" s="3">
         <v>4001</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
-        <v>557.52</v>
+      <c r="E2" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>4002</v>
+      </c>
       <c r="B3" s="3">
         <v>4002</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="3">
-        <v>8672.57</v>
+      <c r="E3" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1">
-        <v>13</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6">
+        <v>13</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4</v>
+      </c>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>4003</v>
+      </c>
       <c r="B4" s="3">
         <v>4003</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="3">
-        <v>7415.93</v>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4</v>
-      </c>
-      <c r="L4" s="7">
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6">
+        <v>13</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4004</v>
+      </c>
       <c r="B5" s="3">
         <v>4004</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1200,24 +1317,30 @@
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6">
+        <v>13</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4005</v>
+      </c>
       <c r="B6" s="3">
         <v>4005</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1229,1049 +1352,1244 @@
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6">
+        <v>13</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4006</v>
+      </c>
       <c r="B7" s="3">
         <v>4006</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="3">
-        <v>30.97</v>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="6">
+        <v>13</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>4</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>4007</v>
+      </c>
       <c r="B8" s="3">
         <v>4007</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="3">
-        <v>716.81</v>
+      <c r="E8" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6">
+        <v>13</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>4</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>4008</v>
+      </c>
       <c r="B9" s="3">
         <v>4008</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3">
-        <v>1234.51</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="6">
+        <v>13</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>4</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>4009</v>
+      </c>
       <c r="B10" s="3">
         <v>4009</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>9</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3">
-        <v>508.85</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="6">
+        <v>13</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>4</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>4010</v>
+      </c>
       <c r="B11" s="3">
         <v>4010</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="3">
-        <v>508.85</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="E11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="6">
+        <v>13</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>4</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>4011</v>
+      </c>
       <c r="B12" s="3">
         <v>4011</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="3">
-        <v>2482.3000000000002</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="E12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6">
+        <v>13</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>4</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4012</v>
+      </c>
       <c r="B13" s="3">
         <v>4012</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>12</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="3">
         <v>4999</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="1">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="F13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="6">
+        <v>13</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>4</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>4013</v>
+      </c>
       <c r="B14" s="3">
         <v>4013</v>
       </c>
-      <c r="C14" s="2">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="4">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3">
-        <v>4079.65</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="E14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="6">
+        <v>13</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>4</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>4014</v>
+      </c>
       <c r="B15" s="3">
         <v>4014</v>
       </c>
-      <c r="C15" s="2">
-        <v>14</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="4">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="3">
-        <v>4230.09</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="E15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="6">
+        <v>13</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>4</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>4015</v>
+      </c>
       <c r="B16" s="3">
         <v>4015</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="3">
-        <v>33194.69</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1">
-        <v>13</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="E16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="6">
+        <v>13</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <v>4</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>4016</v>
+      </c>
       <c r="B17" s="3">
         <v>4016</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>16</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="3">
-        <v>16676.990000000002</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="E17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="6">
+        <v>13</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>4</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>4017</v>
+      </c>
       <c r="B18" s="3">
         <v>4017</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="3">
-        <v>10615.04</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1">
-        <v>13</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="6">
+        <v>13</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>4</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>4018</v>
+      </c>
       <c r="B19" s="3">
         <v>4018</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>18</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="3">
-        <v>12.39</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1">
-        <v>13</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="E19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="6">
+        <v>13</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>4</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>4019</v>
+      </c>
       <c r="B20" s="3">
         <v>4019</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>19</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="3">
-        <v>2946.9</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="1">
-        <v>13</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="6">
+        <v>13</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>4</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>4020</v>
+      </c>
       <c r="B21" s="3">
         <v>4020</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>20</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="3">
-        <v>6181.42</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="1">
-        <v>13</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="E21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="6">
+        <v>13</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>4</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>4021</v>
+      </c>
       <c r="B22" s="3">
         <v>4021</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>21</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="3">
-        <v>46.9</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="1">
-        <v>13</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="E22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="6">
+        <v>13</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>4</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>4022</v>
+      </c>
       <c r="B23" s="3">
         <v>4022</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>22</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="3">
-        <v>36.28</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="1">
-        <v>13</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="6">
+        <v>13</v>
+      </c>
+      <c r="I23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>4</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>4023</v>
+      </c>
       <c r="B24" s="3">
         <v>4023</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>23</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E24" s="3">
         <v>3480</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="1">
-        <v>13</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="F24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="6">
+        <v>13</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>4</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>4024</v>
+      </c>
       <c r="B25" s="3">
         <v>4024</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>24</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="3">
         <v>1285</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6">
+        <v>4</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>4025</v>
+      </c>
       <c r="B26" s="3">
         <v>4025</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>25</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="3">
         <v>2575</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="1">
-        <v>13</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="6">
+        <v>13</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>4</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>4026</v>
+      </c>
       <c r="B27" s="3">
         <v>4026</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>26</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="3">
         <v>2575</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="1">
-        <v>13</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="6">
+        <v>13</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
+        <v>4</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>4027</v>
+      </c>
       <c r="B28" s="3">
         <v>4027</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>27</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="3">
         <v>2620</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="1">
-        <v>13</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="6">
+        <v>13</v>
+      </c>
+      <c r="I28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28" s="6">
+        <v>4</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>4028</v>
+      </c>
       <c r="B29" s="3">
         <v>4028</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>28</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="3">
         <v>2515</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="1">
-        <v>13</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="6">
+        <v>13</v>
+      </c>
+      <c r="I29" s="6">
+        <v>1</v>
+      </c>
+      <c r="J29" s="6">
+        <v>4</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>4029</v>
+      </c>
       <c r="B30" s="3">
         <v>4029</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <v>29</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="3">
-        <v>9296.4500000000007</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="1">
-        <v>13</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="E30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="6">
+        <v>13</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>4030</v>
+      </c>
       <c r="B31" s="3">
         <v>4030</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <v>30</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="3">
         <v>3060</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6">
+        <v>4</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>4031</v>
+      </c>
       <c r="B32" s="3">
         <v>4031</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <v>31</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="3">
-        <v>9051.9599999999991</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="1">
-        <v>13</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12">
+      <c r="E32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="6">
+        <v>13</v>
+      </c>
+      <c r="I32" s="6">
+        <v>1</v>
+      </c>
+      <c r="J32" s="6">
+        <v>4</v>
+      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>4032</v>
+      </c>
       <c r="B33" s="3">
         <v>4032</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <v>32</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="3">
-        <v>3336.28</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="1">
-        <v>13</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12">
+      <c r="E33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="6">
+        <v>13</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+      <c r="J33" s="6">
+        <v>4</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>4033</v>
+      </c>
       <c r="B34" s="3">
         <v>4033</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="4">
         <v>33</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="3">
-        <v>2123.89</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="1">
-        <v>13</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12">
+      <c r="E34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="6">
+        <v>13</v>
+      </c>
+      <c r="I34" s="6">
+        <v>1</v>
+      </c>
+      <c r="J34" s="6">
+        <v>4</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>4034</v>
+      </c>
       <c r="B35" s="3">
         <v>4034</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="4">
         <v>34</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="3">
-        <v>3393.81</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="1">
-        <v>13</v>
-      </c>
-      <c r="I35" s="1">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12">
+      <c r="E35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="6">
+        <v>13</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+      <c r="J35" s="6">
+        <v>4</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>4035</v>
+      </c>
       <c r="B36" s="3">
         <v>4035</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="4">
         <v>35</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="3">
-        <v>199.12</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="1">
-        <v>13</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1">
-        <v>4</v>
-      </c>
-      <c r="L36" s="7">
+      <c r="E36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="6">
+        <v>13</v>
+      </c>
+      <c r="I36" s="6">
+        <v>1</v>
+      </c>
+      <c r="J36" s="6">
+        <v>4</v>
+      </c>
+      <c r="K36" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>4036</v>
+      </c>
       <c r="B37" s="3">
         <v>4036</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="4">
         <v>36</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="1">
-        <v>13</v>
-      </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>4</v>
-      </c>
-      <c r="L37" s="7">
+      <c r="E37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="6">
+        <v>13</v>
+      </c>
+      <c r="I37" s="6">
+        <v>1</v>
+      </c>
+      <c r="J37" s="6">
+        <v>4</v>
+      </c>
+      <c r="K37" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>4037</v>
+      </c>
       <c r="B38" s="3">
         <v>4037</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="4">
         <v>37</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="3">
         <v>6000</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="1">
-        <v>13</v>
-      </c>
-      <c r="I38" s="1">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1">
-        <v>4</v>
-      </c>
-      <c r="L38" s="7">
+      <c r="F38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="6">
+        <v>13</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1</v>
+      </c>
+      <c r="J38" s="6">
+        <v>4</v>
+      </c>
+      <c r="K38" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>4038</v>
+      </c>
       <c r="B39" s="3">
         <v>4038</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>38</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="2">
-        <v>199.12</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="1">
-        <v>13</v>
-      </c>
-      <c r="I39" s="1">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1">
-        <v>4</v>
-      </c>
-      <c r="L39">
+      <c r="E39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="6">
+        <v>13</v>
+      </c>
+      <c r="I39" s="6">
+        <v>1</v>
+      </c>
+      <c r="J39" s="6">
+        <v>4</v>
+      </c>
+      <c r="K39" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>4039</v>
+      </c>
       <c r="B40" s="3">
         <v>4039</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="4">
         <v>39</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="2">
-        <v>12079.65</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="1">
-        <v>13</v>
-      </c>
-      <c r="I40" s="1">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1">
-        <v>4</v>
-      </c>
-      <c r="L40">
+      <c r="E40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="6">
+        <v>13</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1</v>
+      </c>
+      <c r="J40" s="6">
+        <v>4</v>
+      </c>
+      <c r="K40" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:12">
-      <c r="B41" s="2">
+    <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>4040</v>
       </c>
-      <c r="C41" s="2">
+      <c r="B41" s="4">
+        <v>4040</v>
+      </c>
+      <c r="C41" s="4">
         <v>40</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="2">
-        <v>16659.29</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="E41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="2">
-        <v>13</v>
-      </c>
-      <c r="I41" s="2">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2">
-        <v>4</v>
-      </c>
-      <c r="L41" s="7">
+      <c r="G41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="4">
+        <v>13</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>4</v>
+      </c>
+      <c r="K41" s="5">
         <v>7</v>
       </c>
     </row>

--- a/excels/materiales/04Acero(varilla).xlsx
+++ b/excels/materiales/04Acero(varilla).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/excels/materiales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelziga/GITHUB/COTOCO/materiales/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -261,6 +261,57 @@
   </si>
   <si>
     <t>16659.29</t>
+  </si>
+  <si>
+    <t>MC tubo estructural galvanizado cuad 50x50x1,50 (2"x2"x1,50)</t>
+  </si>
+  <si>
+    <t>Tornillo hexagonal 1/4x2 GR2</t>
+  </si>
+  <si>
+    <t>Tornillo hexagonal 1/4x1 1/2 GR2</t>
+  </si>
+  <si>
+    <t>Tornillo Gypsum fina 38mm #6 x 1 1/2"</t>
+  </si>
+  <si>
+    <t>Tornillo Gypsum fina 50mm #6 x 2" 50mm</t>
+  </si>
+  <si>
+    <t>Tornillo Gypsum fina 65 mm #8 x 2 1/2"</t>
+  </si>
+  <si>
+    <t>Tornillo Gypsum fina 75 mm #8 x 3</t>
+  </si>
+  <si>
+    <t>Tornillo Torfix cabeza plana #8 x 3 1/2"</t>
+  </si>
+  <si>
+    <t>Tornillo Torfix cabeza plana #12 x 4</t>
+  </si>
+  <si>
+    <t>Tornillo Techo punta corriente 1/4 x 3</t>
+  </si>
+  <si>
+    <t>Tornillo tirafondo 1/4 x 6</t>
+  </si>
+  <si>
+    <t>Tornillo Gypsum fina 25 mm #6 x1</t>
+  </si>
+  <si>
+    <t>Tubo Red Galv s/rosca CED 20x12mm (1/2")</t>
+  </si>
+  <si>
+    <t>Esquinero metal 3,05m (10ft)</t>
+  </si>
+  <si>
+    <t>Angular HN 38x38x3,17mm (11/2"x11/2"x1/8")</t>
+  </si>
+  <si>
+    <t>MC perfil galva 50x70x1,50x 6mts (2"x3"x1,50)</t>
+  </si>
+  <si>
+    <t>Tornillo concreto PHILLIPS 1/4 x 2 1/4</t>
   </si>
 </sst>
 </file>
@@ -779,7 +830,7 @@
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -793,6 +844,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -894,7 +960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -929,7 +995,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1138,24 +1204,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.1640625" style="11" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1171,13 +1235,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1206,13 +1270,13 @@
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="6">
@@ -1241,13 +1305,13 @@
       <c r="D3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="6">
@@ -1276,13 +1340,13 @@
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="6">
@@ -1311,13 +1375,13 @@
       <c r="D5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="6">
@@ -1346,13 +1410,13 @@
       <c r="D6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
         <v>558</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="6">
@@ -1381,13 +1445,13 @@
       <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="6">
@@ -1416,13 +1480,13 @@
       <c r="D8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="6">
@@ -1451,13 +1515,13 @@
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="6">
@@ -1486,13 +1550,13 @@
       <c r="D10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="6">
@@ -1521,13 +1585,13 @@
       <c r="D11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="6">
@@ -1556,13 +1620,13 @@
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="6">
@@ -1591,13 +1655,13 @@
       <c r="D13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="12">
         <v>4999</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="6">
@@ -1626,13 +1690,13 @@
       <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="12" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="6">
@@ -1661,13 +1725,13 @@
       <c r="D15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="6">
@@ -1696,13 +1760,13 @@
       <c r="D16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="6">
@@ -1731,13 +1795,13 @@
       <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="6">
@@ -1766,13 +1830,13 @@
       <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="12" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="6">
@@ -1801,13 +1865,13 @@
       <c r="D19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="6">
@@ -1836,13 +1900,13 @@
       <c r="D20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="6">
@@ -1871,13 +1935,13 @@
       <c r="D21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="6">
@@ -1906,13 +1970,13 @@
       <c r="D22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="6">
@@ -1941,13 +2005,13 @@
       <c r="D23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="6">
@@ -1976,13 +2040,13 @@
       <c r="D24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="12">
         <v>3480</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="6">
@@ -2011,13 +2075,13 @@
       <c r="D25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="12">
         <v>1285</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H25" s="6">
@@ -2046,13 +2110,13 @@
       <c r="D26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="12">
         <v>2575</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="6">
@@ -2081,13 +2145,13 @@
       <c r="D27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="12">
         <v>2575</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H27" s="6">
@@ -2116,13 +2180,13 @@
       <c r="D28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="12">
         <v>2620</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="6">
@@ -2151,13 +2215,13 @@
       <c r="D29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="12">
         <v>2515</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="6">
@@ -2186,13 +2250,13 @@
       <c r="D30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="12" t="s">
         <v>69</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="6">
@@ -2221,13 +2285,13 @@
       <c r="D31" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="12">
         <v>3060</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="6">
@@ -2256,13 +2320,13 @@
       <c r="D32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="12" t="s">
         <v>70</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="6">
@@ -2291,13 +2355,13 @@
       <c r="D33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="12" t="s">
         <v>71</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="6">
@@ -2326,13 +2390,13 @@
       <c r="D34" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="12" t="s">
         <v>72</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="6">
@@ -2361,13 +2425,13 @@
       <c r="D35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="12" t="s">
         <v>73</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="6">
@@ -2396,13 +2460,13 @@
       <c r="D36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="6">
@@ -2431,13 +2495,13 @@
       <c r="D37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="12" t="s">
         <v>75</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="6">
@@ -2466,13 +2530,13 @@
       <c r="D38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="12">
         <v>6000</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="6">
@@ -2501,13 +2565,13 @@
       <c r="D39" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="13" t="s">
         <v>74</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="6">
@@ -2536,13 +2600,13 @@
       <c r="D40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="13" t="s">
         <v>76</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H40" s="6">
@@ -2571,13 +2635,13 @@
       <c r="D41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H41" s="4">
@@ -2590,6 +2654,601 @@
         <v>4</v>
       </c>
       <c r="K41" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>4041</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4041</v>
+      </c>
+      <c r="C42" s="4">
+        <v>41</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="13">
+        <v>9051.9500000000007</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="4">
+        <v>13</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>4</v>
+      </c>
+      <c r="K42" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>4042</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4042</v>
+      </c>
+      <c r="C43" s="4">
+        <v>42</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="13">
+        <v>39.82</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="4">
+        <v>13</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>4</v>
+      </c>
+      <c r="K43" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>4043</v>
+      </c>
+      <c r="B44" s="4">
+        <v>4043</v>
+      </c>
+      <c r="C44" s="4">
+        <v>43</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="13">
+        <v>61.95</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="4">
+        <v>13</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>4</v>
+      </c>
+      <c r="K44" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>4044</v>
+      </c>
+      <c r="B45" s="4">
+        <v>4044</v>
+      </c>
+      <c r="C45" s="4">
+        <v>44</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="13">
+        <v>4.72</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="4">
+        <v>13</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4">
+        <v>4</v>
+      </c>
+      <c r="K45" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>4045</v>
+      </c>
+      <c r="B46" s="4">
+        <v>4045</v>
+      </c>
+      <c r="C46" s="4">
+        <v>45</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="13">
+        <v>6.19</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="4">
+        <v>13</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>4</v>
+      </c>
+      <c r="K46" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>4046</v>
+      </c>
+      <c r="B47" s="4">
+        <v>4046</v>
+      </c>
+      <c r="C47" s="4">
+        <v>46</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="13">
+        <v>7.95</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="4">
+        <v>13</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4">
+        <v>4</v>
+      </c>
+      <c r="K47" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>4047</v>
+      </c>
+      <c r="B48" s="4">
+        <v>4047</v>
+      </c>
+      <c r="C48" s="4">
+        <v>47</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="13">
+        <v>15.04</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="4">
+        <v>13</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4">
+        <v>4</v>
+      </c>
+      <c r="K48" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>4048</v>
+      </c>
+      <c r="B49" s="4">
+        <v>4048</v>
+      </c>
+      <c r="C49" s="4">
+        <v>48</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="13">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="4">
+        <v>13</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>4</v>
+      </c>
+      <c r="K49" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>4049</v>
+      </c>
+      <c r="B50" s="4">
+        <v>4049</v>
+      </c>
+      <c r="C50" s="4">
+        <v>49</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="13">
+        <v>24.78</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="4">
+        <v>13</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4">
+        <v>4</v>
+      </c>
+      <c r="K50" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>4050</v>
+      </c>
+      <c r="B51" s="4">
+        <v>4050</v>
+      </c>
+      <c r="C51" s="4">
+        <v>50</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="13">
+        <v>30.97</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="4">
+        <v>13</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4">
+        <v>4</v>
+      </c>
+      <c r="K51" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>4051</v>
+      </c>
+      <c r="B52" s="4">
+        <v>4051</v>
+      </c>
+      <c r="C52" s="4">
+        <v>51</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="13">
+        <v>57.52</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="4">
+        <v>13</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1</v>
+      </c>
+      <c r="J52" s="4">
+        <v>4</v>
+      </c>
+      <c r="K52" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>4052</v>
+      </c>
+      <c r="B53" s="4">
+        <v>4052</v>
+      </c>
+      <c r="C53" s="4">
+        <v>52</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" s="13">
+        <v>145.74</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="4">
+        <v>13</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
+      <c r="J53" s="4">
+        <v>4</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>4053</v>
+      </c>
+      <c r="B54" s="4">
+        <v>4053</v>
+      </c>
+      <c r="C54" s="4">
+        <v>53</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="13">
+        <v>163.72</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="4">
+        <v>13</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1</v>
+      </c>
+      <c r="J54" s="4">
+        <v>4</v>
+      </c>
+      <c r="K54" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>4054</v>
+      </c>
+      <c r="B55" s="4">
+        <v>4054</v>
+      </c>
+      <c r="C55" s="4">
+        <v>54</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="15">
+        <v>4318.58</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="4">
+        <v>13</v>
+      </c>
+      <c r="I55" s="4">
+        <v>1</v>
+      </c>
+      <c r="J55" s="4">
+        <v>4</v>
+      </c>
+      <c r="K55" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>4055</v>
+      </c>
+      <c r="B56" s="4">
+        <v>4055</v>
+      </c>
+      <c r="C56" s="4">
+        <v>55</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="13">
+        <v>734.51</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="4">
+        <v>13</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1</v>
+      </c>
+      <c r="J56" s="4">
+        <v>4</v>
+      </c>
+      <c r="K56" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>4056</v>
+      </c>
+      <c r="B57" s="4">
+        <v>4056</v>
+      </c>
+      <c r="C57" s="4">
+        <v>56</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="13">
+        <v>6137.17</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="4">
+        <v>13</v>
+      </c>
+      <c r="I57" s="4">
+        <v>1</v>
+      </c>
+      <c r="J57" s="4">
+        <v>4</v>
+      </c>
+      <c r="K57" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>4057</v>
+      </c>
+      <c r="B58" s="4">
+        <v>4057</v>
+      </c>
+      <c r="C58" s="4">
+        <v>57</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="13">
+        <v>6380.53</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="4">
+        <v>13</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1</v>
+      </c>
+      <c r="J58" s="4">
+        <v>4</v>
+      </c>
+      <c r="K58" s="7">
         <v>7</v>
       </c>
     </row>
